--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Sooty Albatross_Tristan da Cunha.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Sooty Albatross_Tristan da Cunha.xlsx
@@ -4134,13 +4134,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF08219-47F4-4FE3-B22E-7D01126D5E9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0883CE99-6279-41EA-8085-DFCF1CE4D43E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D120945-C628-4108-AAC2-BE94BABCDB83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA236F01-99CD-48B2-9A99-6335FF8BFE6C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4E5CEB-D513-4922-882D-9B07A916C437}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D88C92D8-CAA3-42A1-A993-25C293261516}"/>
 </file>